--- a/input/project_tiers.xlsx
+++ b/input/project_tiers.xlsx
@@ -12,9 +12,9 @@
     <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$2:$J$234</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$2:$J$234</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$2:$J$234</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$2:$J$250</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$2:$J$250</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$2:$J$250</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <pivotCaches>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="400">
   <si>
     <t>TF4CN access levels</t>
   </si>
@@ -169,6 +169,15 @@
     <t>id</t>
   </si>
   <si>
+    <t>Sequencing ID</t>
+  </si>
+  <si>
+    <t>Alignment ID</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
     <t>TABLE Celltransplant</t>
   </si>
   <si>
@@ -514,6 +523,9 @@
     <t>hg19</t>
   </si>
   <si>
+    <t>Alignment Tool</t>
+  </si>
+  <si>
     <t>STAR 2.4.2</t>
   </si>
   <si>
@@ -529,6 +541,9 @@
     <t>HTSeq 0.9.0</t>
   </si>
   <si>
+    <t>Expression Analysis ID</t>
+  </si>
+  <si>
     <t>TABLE Extraction</t>
   </si>
   <si>
@@ -556,7 +571,10 @@
     <t>QIAmp micro column</t>
   </si>
   <si>
-    <t>TABLE FusionSVDetection</t>
+    <t>Extraction ID</t>
+  </si>
+  <si>
+    <t>TABLE FusionDetection</t>
   </si>
   <si>
     <t>Starfusion</t>
@@ -601,6 +619,15 @@
     <t>ENSEMBL</t>
   </si>
   <si>
+    <t>Fusion Detection ID</t>
+  </si>
+  <si>
+    <t>Gene Models</t>
+  </si>
+  <si>
+    <t>Genome Reference</t>
+  </si>
+  <si>
     <t>TABLE Immunotherapy</t>
   </si>
   <si>
@@ -1169,6 +1196,9 @@
   </si>
   <si>
     <t>Cosmic 0.68</t>
+  </si>
+  <si>
+    <t>Variant Calling ID</t>
   </si>
   <si>
     <t>db snp</t>
@@ -1598,9 +1628,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="232">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="242">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:F234" sheet="Sheet1"/>
+    <worksheetSource ref="A2:F250" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Table" numFmtId="0">
@@ -1614,7 +1644,7 @@
         <s v="TABLE Enrollment"/>
         <s v="TABLE ExpressionAnalysis"/>
         <s v="TABLE Extraction"/>
-        <s v="TABLE FusionSVDetection"/>
+        <s v="TABLE FusionDetection"/>
         <s v="TABLE Immunotherapy"/>
         <s v="TABLE Labtest"/>
         <s v="TABLE Outcome"/>
@@ -1659,7 +1689,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="field" numFmtId="0">
-      <sharedItems count="194">
+      <sharedItems count="200">
         <s v="Additional molecular diagnostic testing performed"/>
         <s v="Additional molecular testing"/>
         <s v="Additional test"/>
@@ -1669,6 +1699,7 @@
         <s v="Age at diagnosis"/>
         <s v="Age at enrollment"/>
         <s v="Alignment"/>
+        <s v="Alignment ID"/>
         <s v="Anatomic site the sample obtained from"/>
         <s v="Annotation"/>
         <s v="Assent form version"/>
@@ -1722,15 +1753,18 @@
         <s v="End date"/>
         <s v="Enrollment approval date"/>
         <s v="Enrollment institution"/>
-        <s v="Estimated tumour content"/>
+        <s v="Estimated tumor content"/>
         <s v="Ethnicity"/>
         <s v="Event Type"/>
+        <s v="Expression Analysis ID"/>
         <s v="Expression Estimation"/>
+        <s v="Extraction ID"/>
         <s v="Family history and risk factors"/>
         <s v="Family history of predisposition syndrome"/>
         <s v="Fastqc"/>
         <s v="Flag Stat"/>
         <s v="Fusion Detection"/>
+        <s v="Fusion Detection ID"/>
         <s v="Gender"/>
         <s v="Genetic cancer syndrome"/>
         <s v="Grading system used"/>
@@ -1808,7 +1842,9 @@
         <s v="Sample ID"/>
         <s v="Sample site"/>
         <s v="Sample type"/>
+        <s v="Sequencing ID"/>
         <s v="Shipping date"/>
+        <s v="Site"/>
         <s v="Site Number"/>
         <s v="Site of Metastases"/>
         <s v="Sites of any progression or recurrence"/>
@@ -1969,11 +2005,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="232">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="242">
   <r>
     <x v="0"/>
     <x v="1"/>
-    <x v="84"/>
+    <x v="88"/>
     <x v="7"/>
     <x v="72"/>
     <x v="1"/>
@@ -1989,7 +2025,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <x v="94"/>
+    <x v="98"/>
     <x v="7"/>
     <x v="73"/>
     <x v="1"/>
@@ -1997,7 +2033,7 @@
   <r>
     <x v="0"/>
     <x v="4"/>
-    <x v="93"/>
+    <x v="97"/>
     <x v="7"/>
     <x v="66"/>
     <x v="1"/>
@@ -2005,7 +2041,7 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <x v="127"/>
+    <x v="131"/>
     <x v="7"/>
     <x v="45"/>
     <x v="1"/>
@@ -2013,7 +2049,7 @@
   <r>
     <x v="0"/>
     <x v="6"/>
-    <x v="85"/>
+    <x v="89"/>
     <x v="7"/>
     <x v="46"/>
     <x v="1"/>
@@ -2021,7 +2057,7 @@
   <r>
     <x v="0"/>
     <x v="7"/>
-    <x v="15"/>
+    <x v="16"/>
     <x v="7"/>
     <x v="46"/>
     <x v="1"/>
@@ -2029,7 +2065,7 @@
   <r>
     <x v="0"/>
     <x v="8"/>
-    <x v="117"/>
+    <x v="121"/>
     <x v="7"/>
     <x v="46"/>
     <x v="1"/>
@@ -2037,7 +2073,7 @@
   <r>
     <x v="0"/>
     <x v="9"/>
-    <x v="78"/>
+    <x v="82"/>
     <x v="7"/>
     <x v="74"/>
     <x v="1"/>
@@ -2045,7 +2081,7 @@
   <r>
     <x v="0"/>
     <x v="10"/>
-    <x v="69"/>
+    <x v="72"/>
     <x v="7"/>
     <x v="26"/>
     <x v="1"/>
@@ -2053,7 +2089,7 @@
   <r>
     <x v="0"/>
     <x v="11"/>
-    <x v="35"/>
+    <x v="36"/>
     <x v="7"/>
     <x v="46"/>
     <x v="1"/>
@@ -2061,7 +2097,7 @@
   <r>
     <x v="0"/>
     <x v="12"/>
-    <x v="86"/>
+    <x v="90"/>
     <x v="7"/>
     <x v="64"/>
     <x v="1"/>
@@ -2069,7 +2105,7 @@
   <r>
     <x v="0"/>
     <x v="13"/>
-    <x v="68"/>
+    <x v="71"/>
     <x v="7"/>
     <x v="43"/>
     <x v="1"/>
@@ -2077,7 +2113,7 @@
   <r>
     <x v="0"/>
     <x v="14"/>
-    <x v="135"/>
+    <x v="139"/>
     <x v="8"/>
     <x v="51"/>
     <x v="1"/>
@@ -2085,31 +2121,47 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <x v="145"/>
+    <x v="149"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
     <x v="0"/>
-    <x v="110"/>
-    <x v="2"/>
+    <x v="15"/>
+    <x v="152"/>
+    <x v="4"/>
     <x v="81"/>
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="160"/>
-    <x v="8"/>
-    <x v="81"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="24"/>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="114"/>
+    <x v="2"/>
+    <x v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="166"/>
+    <x v="8"/>
+    <x v="81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="25"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -2117,7 +2169,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <x v="54"/>
+    <x v="55"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -2125,7 +2177,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <x v="183"/>
+    <x v="189"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -2133,7 +2185,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <x v="110"/>
+    <x v="114"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -2141,23 +2193,23 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <x v="34"/>
-    <x v="8"/>
-    <x v="81"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="160"/>
-    <x v="2"/>
-    <x v="81"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="164"/>
+    <x v="35"/>
+    <x v="8"/>
+    <x v="81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="166"/>
+    <x v="2"/>
+    <x v="81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="170"/>
     <x v="2"/>
     <x v="81"/>
     <x v="1"/>
@@ -2165,7 +2217,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <x v="169"/>
+    <x v="175"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -2173,7 +2225,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <x v="144"/>
+    <x v="148"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -2181,14 +2233,6 @@
   <r>
     <x v="2"/>
     <x v="5"/>
-    <x v="55"/>
-    <x v="5"/>
-    <x v="81"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
     <x v="56"/>
     <x v="5"/>
     <x v="81"/>
@@ -2196,16 +2240,24 @@
   </r>
   <r>
     <x v="2"/>
+    <x v="6"/>
+    <x v="57"/>
+    <x v="5"/>
+    <x v="81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="7"/>
-    <x v="57"/>
-    <x v="8"/>
-    <x v="81"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="44"/>
+    <x v="58"/>
+    <x v="8"/>
+    <x v="81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="45"/>
     <x v="5"/>
     <x v="81"/>
     <x v="1"/>
@@ -2213,7 +2265,7 @@
   <r>
     <x v="2"/>
     <x v="9"/>
-    <x v="100"/>
+    <x v="104"/>
     <x v="5"/>
     <x v="81"/>
     <x v="1"/>
@@ -2221,7 +2273,7 @@
   <r>
     <x v="2"/>
     <x v="10"/>
-    <x v="182"/>
+    <x v="188"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -2229,7 +2281,7 @@
   <r>
     <x v="2"/>
     <x v="11"/>
-    <x v="179"/>
+    <x v="185"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -2237,7 +2289,7 @@
   <r>
     <x v="2"/>
     <x v="12"/>
-    <x v="186"/>
+    <x v="192"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -2245,7 +2297,7 @@
   <r>
     <x v="2"/>
     <x v="13"/>
-    <x v="120"/>
+    <x v="124"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -2253,7 +2305,7 @@
   <r>
     <x v="2"/>
     <x v="14"/>
-    <x v="134"/>
+    <x v="138"/>
     <x v="2"/>
     <x v="81"/>
     <x v="1"/>
@@ -2261,7 +2313,7 @@
   <r>
     <x v="2"/>
     <x v="15"/>
-    <x v="183"/>
+    <x v="189"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -2269,7 +2321,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <x v="167"/>
+    <x v="173"/>
     <x v="1"/>
     <x v="81"/>
     <x v="2"/>
@@ -2277,7 +2329,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <x v="181"/>
+    <x v="187"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -2285,7 +2337,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <x v="37"/>
+    <x v="38"/>
     <x v="2"/>
     <x v="14"/>
     <x v="1"/>
@@ -2293,7 +2345,7 @@
   <r>
     <x v="3"/>
     <x v="2"/>
-    <x v="89"/>
+    <x v="93"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -2301,7 +2353,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <x v="90"/>
+    <x v="94"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -2309,7 +2361,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <x v="110"/>
+    <x v="114"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -2317,7 +2369,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <x v="29"/>
+    <x v="30"/>
     <x v="2"/>
     <x v="13"/>
     <x v="3"/>
@@ -2325,7 +2377,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <x v="109"/>
+    <x v="113"/>
     <x v="8"/>
     <x v="81"/>
     <x v="3"/>
@@ -2333,7 +2385,7 @@
   <r>
     <x v="4"/>
     <x v="5"/>
-    <x v="130"/>
+    <x v="134"/>
     <x v="8"/>
     <x v="81"/>
     <x v="3"/>
@@ -2341,7 +2393,7 @@
   <r>
     <x v="4"/>
     <x v="7"/>
-    <x v="38"/>
+    <x v="39"/>
     <x v="2"/>
     <x v="16"/>
     <x v="3"/>
@@ -2349,7 +2401,7 @@
   <r>
     <x v="4"/>
     <x v="10"/>
-    <x v="132"/>
+    <x v="136"/>
     <x v="2"/>
     <x v="17"/>
     <x v="3"/>
@@ -2357,7 +2409,7 @@
   <r>
     <x v="4"/>
     <x v="12"/>
-    <x v="33"/>
+    <x v="34"/>
     <x v="8"/>
     <x v="39"/>
     <x v="3"/>
@@ -2365,7 +2417,7 @@
   <r>
     <x v="4"/>
     <x v="16"/>
-    <x v="41"/>
+    <x v="42"/>
     <x v="2"/>
     <x v="80"/>
     <x v="3"/>
@@ -2373,7 +2425,7 @@
   <r>
     <x v="4"/>
     <x v="17"/>
-    <x v="187"/>
+    <x v="193"/>
     <x v="8"/>
     <x v="81"/>
     <x v="3"/>
@@ -2381,7 +2433,7 @@
   <r>
     <x v="4"/>
     <x v="18"/>
-    <x v="129"/>
+    <x v="133"/>
     <x v="8"/>
     <x v="81"/>
     <x v="3"/>
@@ -2389,7 +2441,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <x v="31"/>
+    <x v="32"/>
     <x v="4"/>
     <x v="81"/>
     <x v="2"/>
@@ -2397,7 +2449,7 @@
   <r>
     <x v="4"/>
     <x v="6"/>
-    <x v="191"/>
+    <x v="197"/>
     <x v="8"/>
     <x v="79"/>
     <x v="2"/>
@@ -2405,7 +2457,7 @@
   <r>
     <x v="4"/>
     <x v="8"/>
-    <x v="11"/>
+    <x v="12"/>
     <x v="8"/>
     <x v="2"/>
     <x v="2"/>
@@ -2413,7 +2465,7 @@
   <r>
     <x v="4"/>
     <x v="9"/>
-    <x v="79"/>
+    <x v="83"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -2421,7 +2473,7 @@
   <r>
     <x v="4"/>
     <x v="11"/>
-    <x v="133"/>
+    <x v="137"/>
     <x v="8"/>
     <x v="3"/>
     <x v="2"/>
@@ -2429,7 +2481,7 @@
   <r>
     <x v="4"/>
     <x v="13"/>
-    <x v="114"/>
+    <x v="118"/>
     <x v="1"/>
     <x v="79"/>
     <x v="2"/>
@@ -2437,7 +2489,7 @@
   <r>
     <x v="4"/>
     <x v="15"/>
-    <x v="74"/>
+    <x v="78"/>
     <x v="1"/>
     <x v="79"/>
     <x v="2"/>
@@ -2445,7 +2497,7 @@
   <r>
     <x v="4"/>
     <x v="3"/>
-    <x v="32"/>
+    <x v="33"/>
     <x v="8"/>
     <x v="1"/>
     <x v="1"/>
@@ -2453,7 +2505,7 @@
   <r>
     <x v="4"/>
     <x v="14"/>
-    <x v="99"/>
+    <x v="103"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -2461,7 +2513,7 @@
   <r>
     <x v="4"/>
     <x v="19"/>
-    <x v="30"/>
+    <x v="31"/>
     <x v="1"/>
     <x v="79"/>
     <x v="1"/>
@@ -2469,7 +2521,7 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <x v="110"/>
+    <x v="114"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -2477,7 +2529,7 @@
   <r>
     <x v="5"/>
     <x v="22"/>
-    <x v="87"/>
+    <x v="91"/>
     <x v="8"/>
     <x v="81"/>
     <x v="3"/>
@@ -2485,7 +2537,7 @@
   <r>
     <x v="5"/>
     <x v="12"/>
-    <x v="73"/>
+    <x v="77"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -2493,7 +2545,7 @@
   <r>
     <x v="5"/>
     <x v="14"/>
-    <x v="158"/>
+    <x v="164"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -2501,7 +2553,7 @@
   <r>
     <x v="5"/>
     <x v="17"/>
-    <x v="119"/>
+    <x v="123"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -2509,7 +2561,7 @@
   <r>
     <x v="5"/>
     <x v="18"/>
-    <x v="17"/>
+    <x v="18"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -2533,7 +2585,7 @@
   <r>
     <x v="5"/>
     <x v="21"/>
-    <x v="88"/>
+    <x v="92"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -2541,7 +2593,7 @@
   <r>
     <x v="5"/>
     <x v="24"/>
-    <x v="159"/>
+    <x v="165"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -2549,7 +2601,7 @@
   <r>
     <x v="5"/>
     <x v="25"/>
-    <x v="156"/>
+    <x v="162"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -2557,7 +2609,7 @@
   <r>
     <x v="5"/>
     <x v="26"/>
-    <x v="20"/>
+    <x v="21"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -2581,7 +2633,7 @@
   <r>
     <x v="5"/>
     <x v="2"/>
-    <x v="46"/>
+    <x v="47"/>
     <x v="2"/>
     <x v="11"/>
     <x v="1"/>
@@ -2597,7 +2649,7 @@
   <r>
     <x v="5"/>
     <x v="11"/>
-    <x v="184"/>
+    <x v="190"/>
     <x v="8"/>
     <x v="44"/>
     <x v="1"/>
@@ -2605,7 +2657,7 @@
   <r>
     <x v="5"/>
     <x v="16"/>
-    <x v="157"/>
+    <x v="163"/>
     <x v="8"/>
     <x v="0"/>
     <x v="1"/>
@@ -2613,7 +2665,7 @@
   <r>
     <x v="5"/>
     <x v="23"/>
-    <x v="150"/>
+    <x v="156"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -2621,7 +2673,7 @@
   <r>
     <x v="5"/>
     <x v="0"/>
-    <x v="110"/>
+    <x v="114"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -2629,7 +2681,7 @@
   <r>
     <x v="5"/>
     <x v="1"/>
-    <x v="47"/>
+    <x v="48"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -2637,7 +2689,7 @@
   <r>
     <x v="5"/>
     <x v="4"/>
-    <x v="22"/>
+    <x v="23"/>
     <x v="8"/>
     <x v="29"/>
     <x v="0"/>
@@ -2645,7 +2697,7 @@
   <r>
     <x v="5"/>
     <x v="5"/>
-    <x v="25"/>
+    <x v="26"/>
     <x v="8"/>
     <x v="34"/>
     <x v="0"/>
@@ -2653,7 +2705,7 @@
   <r>
     <x v="5"/>
     <x v="6"/>
-    <x v="19"/>
+    <x v="20"/>
     <x v="8"/>
     <x v="33"/>
     <x v="0"/>
@@ -2661,7 +2713,7 @@
   <r>
     <x v="5"/>
     <x v="7"/>
-    <x v="77"/>
+    <x v="81"/>
     <x v="8"/>
     <x v="81"/>
     <x v="0"/>
@@ -2669,7 +2721,7 @@
   <r>
     <x v="5"/>
     <x v="8"/>
-    <x v="95"/>
+    <x v="99"/>
     <x v="8"/>
     <x v="30"/>
     <x v="0"/>
@@ -2677,7 +2729,7 @@
   <r>
     <x v="5"/>
     <x v="9"/>
-    <x v="147"/>
+    <x v="151"/>
     <x v="8"/>
     <x v="59"/>
     <x v="0"/>
@@ -2685,7 +2737,7 @@
   <r>
     <x v="5"/>
     <x v="10"/>
-    <x v="146"/>
+    <x v="150"/>
     <x v="8"/>
     <x v="56"/>
     <x v="0"/>
@@ -2693,7 +2745,7 @@
   <r>
     <x v="5"/>
     <x v="13"/>
-    <x v="152"/>
+    <x v="158"/>
     <x v="8"/>
     <x v="42"/>
     <x v="0"/>
@@ -2701,7 +2753,7 @@
   <r>
     <x v="5"/>
     <x v="15"/>
-    <x v="189"/>
+    <x v="195"/>
     <x v="8"/>
     <x v="24"/>
     <x v="0"/>
@@ -2709,7 +2761,7 @@
   <r>
     <x v="6"/>
     <x v="2"/>
-    <x v="60"/>
+    <x v="61"/>
     <x v="2"/>
     <x v="12"/>
     <x v="3"/>
@@ -2717,7 +2769,7 @@
   <r>
     <x v="6"/>
     <x v="9"/>
-    <x v="116"/>
+    <x v="120"/>
     <x v="8"/>
     <x v="38"/>
     <x v="3"/>
@@ -2725,7 +2777,7 @@
   <r>
     <x v="6"/>
     <x v="10"/>
-    <x v="115"/>
+    <x v="119"/>
     <x v="8"/>
     <x v="81"/>
     <x v="3"/>
@@ -2733,7 +2785,7 @@
   <r>
     <x v="6"/>
     <x v="11"/>
-    <x v="137"/>
+    <x v="141"/>
     <x v="8"/>
     <x v="37"/>
     <x v="3"/>
@@ -2741,7 +2793,7 @@
   <r>
     <x v="6"/>
     <x v="12"/>
-    <x v="136"/>
+    <x v="140"/>
     <x v="8"/>
     <x v="81"/>
     <x v="3"/>
@@ -2749,7 +2801,7 @@
   <r>
     <x v="6"/>
     <x v="1"/>
-    <x v="61"/>
+    <x v="62"/>
     <x v="8"/>
     <x v="78"/>
     <x v="2"/>
@@ -2757,7 +2809,7 @@
   <r>
     <x v="6"/>
     <x v="3"/>
-    <x v="36"/>
+    <x v="37"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -2765,7 +2817,7 @@
   <r>
     <x v="6"/>
     <x v="7"/>
-    <x v="58"/>
+    <x v="59"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -2773,7 +2825,7 @@
   <r>
     <x v="6"/>
     <x v="8"/>
-    <x v="163"/>
+    <x v="169"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -2781,7 +2833,7 @@
   <r>
     <x v="6"/>
     <x v="13"/>
-    <x v="165"/>
+    <x v="171"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -2789,7 +2841,7 @@
   <r>
     <x v="6"/>
     <x v="14"/>
-    <x v="179"/>
+    <x v="185"/>
     <x v="8"/>
     <x v="28"/>
     <x v="2"/>
@@ -2797,7 +2849,7 @@
   <r>
     <x v="6"/>
     <x v="4"/>
-    <x v="106"/>
+    <x v="110"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -2805,7 +2857,7 @@
   <r>
     <x v="6"/>
     <x v="5"/>
-    <x v="105"/>
+    <x v="109"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -2813,7 +2865,7 @@
   <r>
     <x v="6"/>
     <x v="0"/>
-    <x v="110"/>
+    <x v="114"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -2829,7 +2881,7 @@
   <r>
     <x v="6"/>
     <x v="15"/>
-    <x v="180"/>
+    <x v="186"/>
     <x v="8"/>
     <x v="27"/>
     <x v="0"/>
@@ -2837,7 +2889,7 @@
   <r>
     <x v="7"/>
     <x v="1"/>
-    <x v="126"/>
+    <x v="130"/>
     <x v="6"/>
     <x v="7"/>
     <x v="1"/>
@@ -2845,7 +2897,7 @@
   <r>
     <x v="7"/>
     <x v="2"/>
-    <x v="135"/>
+    <x v="139"/>
     <x v="8"/>
     <x v="48"/>
     <x v="1"/>
@@ -2861,7 +2913,7 @@
   <r>
     <x v="7"/>
     <x v="4"/>
-    <x v="14"/>
+    <x v="15"/>
     <x v="7"/>
     <x v="65"/>
     <x v="1"/>
@@ -2869,23 +2921,39 @@
   <r>
     <x v="7"/>
     <x v="5"/>
-    <x v="65"/>
+    <x v="67"/>
     <x v="7"/>
     <x v="52"/>
     <x v="1"/>
   </r>
   <r>
     <x v="7"/>
+    <x v="6"/>
+    <x v="152"/>
+    <x v="4"/>
+    <x v="81"/>
     <x v="0"/>
-    <x v="145"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="66"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
   </r>
   <r>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="139"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="149"/>
+    <x v="4"/>
+    <x v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="143"/>
     <x v="8"/>
     <x v="70"/>
     <x v="1"/>
@@ -2893,7 +2961,7 @@
   <r>
     <x v="8"/>
     <x v="2"/>
-    <x v="49"/>
+    <x v="50"/>
     <x v="8"/>
     <x v="68"/>
     <x v="1"/>
@@ -2901,7 +2969,7 @@
   <r>
     <x v="8"/>
     <x v="3"/>
-    <x v="143"/>
+    <x v="147"/>
     <x v="8"/>
     <x v="67"/>
     <x v="1"/>
@@ -2909,15 +2977,31 @@
   <r>
     <x v="8"/>
     <x v="4"/>
-    <x v="53"/>
+    <x v="54"/>
     <x v="8"/>
     <x v="69"/>
     <x v="1"/>
   </r>
   <r>
     <x v="8"/>
+    <x v="5"/>
+    <x v="68"/>
+    <x v="4"/>
+    <x v="81"/>
     <x v="0"/>
-    <x v="145"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="154"/>
+    <x v="8"/>
+    <x v="81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="149"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -2925,7 +3009,7 @@
   <r>
     <x v="9"/>
     <x v="1"/>
-    <x v="84"/>
+    <x v="88"/>
     <x v="7"/>
     <x v="77"/>
     <x v="1"/>
@@ -2933,7 +3017,7 @@
   <r>
     <x v="9"/>
     <x v="2"/>
-    <x v="168"/>
+    <x v="174"/>
     <x v="0"/>
     <x v="21"/>
     <x v="1"/>
@@ -2941,7 +3025,7 @@
   <r>
     <x v="9"/>
     <x v="3"/>
-    <x v="70"/>
+    <x v="73"/>
     <x v="0"/>
     <x v="23"/>
     <x v="1"/>
@@ -2949,7 +3033,7 @@
   <r>
     <x v="9"/>
     <x v="4"/>
-    <x v="128"/>
+    <x v="132"/>
     <x v="0"/>
     <x v="22"/>
     <x v="1"/>
@@ -2957,15 +3041,31 @@
   <r>
     <x v="9"/>
     <x v="5"/>
-    <x v="10"/>
+    <x v="11"/>
     <x v="7"/>
     <x v="41"/>
     <x v="1"/>
   </r>
   <r>
     <x v="9"/>
+    <x v="6"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="81"/>
     <x v="0"/>
-    <x v="145"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="74"/>
+    <x v="4"/>
+    <x v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="149"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -2973,7 +3073,7 @@
   <r>
     <x v="10"/>
     <x v="0"/>
-    <x v="110"/>
+    <x v="114"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -2981,7 +3081,7 @@
   <r>
     <x v="10"/>
     <x v="1"/>
-    <x v="160"/>
+    <x v="166"/>
     <x v="2"/>
     <x v="81"/>
     <x v="1"/>
@@ -2989,7 +3089,7 @@
   <r>
     <x v="10"/>
     <x v="2"/>
-    <x v="83"/>
+    <x v="87"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -2997,7 +3097,7 @@
   <r>
     <x v="10"/>
     <x v="3"/>
-    <x v="82"/>
+    <x v="86"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -3005,7 +3105,7 @@
   <r>
     <x v="10"/>
     <x v="4"/>
-    <x v="81"/>
+    <x v="85"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -3013,7 +3113,7 @@
   <r>
     <x v="10"/>
     <x v="5"/>
-    <x v="183"/>
+    <x v="189"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -3021,7 +3121,7 @@
   <r>
     <x v="11"/>
     <x v="0"/>
-    <x v="110"/>
+    <x v="114"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -3029,7 +3129,7 @@
   <r>
     <x v="11"/>
     <x v="1"/>
-    <x v="160"/>
+    <x v="166"/>
     <x v="2"/>
     <x v="81"/>
     <x v="1"/>
@@ -3037,7 +3137,7 @@
   <r>
     <x v="11"/>
     <x v="2"/>
-    <x v="26"/>
+    <x v="27"/>
     <x v="2"/>
     <x v="81"/>
     <x v="1"/>
@@ -3045,7 +3145,7 @@
   <r>
     <x v="11"/>
     <x v="3"/>
-    <x v="59"/>
+    <x v="60"/>
     <x v="2"/>
     <x v="81"/>
     <x v="1"/>
@@ -3053,7 +3153,7 @@
   <r>
     <x v="11"/>
     <x v="4"/>
-    <x v="64"/>
+    <x v="65"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -3061,7 +3161,7 @@
   <r>
     <x v="11"/>
     <x v="5"/>
-    <x v="173"/>
+    <x v="179"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -3069,7 +3169,7 @@
   <r>
     <x v="11"/>
     <x v="6"/>
-    <x v="175"/>
+    <x v="181"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -3077,7 +3177,7 @@
   <r>
     <x v="11"/>
     <x v="7"/>
-    <x v="134"/>
+    <x v="138"/>
     <x v="2"/>
     <x v="81"/>
     <x v="1"/>
@@ -3085,7 +3185,7 @@
   <r>
     <x v="12"/>
     <x v="2"/>
-    <x v="39"/>
+    <x v="40"/>
     <x v="2"/>
     <x v="15"/>
     <x v="2"/>
@@ -3093,7 +3193,7 @@
   <r>
     <x v="12"/>
     <x v="4"/>
-    <x v="107"/>
+    <x v="111"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -3101,7 +3201,7 @@
   <r>
     <x v="12"/>
     <x v="5"/>
-    <x v="97"/>
+    <x v="101"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -3109,7 +3209,7 @@
   <r>
     <x v="12"/>
     <x v="6"/>
-    <x v="96"/>
+    <x v="100"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -3117,7 +3217,7 @@
   <r>
     <x v="12"/>
     <x v="7"/>
-    <x v="138"/>
+    <x v="142"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -3125,7 +3225,7 @@
   <r>
     <x v="12"/>
     <x v="8"/>
-    <x v="166"/>
+    <x v="172"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -3133,7 +3233,7 @@
   <r>
     <x v="12"/>
     <x v="9"/>
-    <x v="151"/>
+    <x v="157"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -3141,7 +3241,7 @@
   <r>
     <x v="12"/>
     <x v="10"/>
-    <x v="190"/>
+    <x v="196"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -3149,7 +3249,7 @@
   <r>
     <x v="12"/>
     <x v="3"/>
-    <x v="48"/>
+    <x v="49"/>
     <x v="8"/>
     <x v="36"/>
     <x v="1"/>
@@ -3157,7 +3257,7 @@
   <r>
     <x v="12"/>
     <x v="11"/>
-    <x v="75"/>
+    <x v="79"/>
     <x v="3"/>
     <x v="9"/>
     <x v="1"/>
@@ -3165,7 +3265,7 @@
   <r>
     <x v="12"/>
     <x v="12"/>
-    <x v="192"/>
+    <x v="198"/>
     <x v="3"/>
     <x v="6"/>
     <x v="1"/>
@@ -3173,7 +3273,7 @@
   <r>
     <x v="12"/>
     <x v="13"/>
-    <x v="76"/>
+    <x v="80"/>
     <x v="8"/>
     <x v="35"/>
     <x v="1"/>
@@ -3181,7 +3281,7 @@
   <r>
     <x v="12"/>
     <x v="14"/>
-    <x v="193"/>
+    <x v="199"/>
     <x v="8"/>
     <x v="55"/>
     <x v="1"/>
@@ -3189,7 +3289,7 @@
   <r>
     <x v="12"/>
     <x v="15"/>
-    <x v="112"/>
+    <x v="116"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -3197,7 +3297,7 @@
   <r>
     <x v="12"/>
     <x v="0"/>
-    <x v="110"/>
+    <x v="114"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -3205,7 +3305,7 @@
   <r>
     <x v="12"/>
     <x v="1"/>
-    <x v="113"/>
+    <x v="117"/>
     <x v="8"/>
     <x v="81"/>
     <x v="0"/>
@@ -3213,7 +3313,7 @@
   <r>
     <x v="13"/>
     <x v="2"/>
-    <x v="40"/>
+    <x v="41"/>
     <x v="2"/>
     <x v="81"/>
     <x v="4"/>
@@ -3221,7 +3321,7 @@
   <r>
     <x v="13"/>
     <x v="4"/>
-    <x v="63"/>
+    <x v="64"/>
     <x v="8"/>
     <x v="32"/>
     <x v="2"/>
@@ -3229,7 +3329,7 @@
   <r>
     <x v="13"/>
     <x v="5"/>
-    <x v="124"/>
+    <x v="128"/>
     <x v="8"/>
     <x v="25"/>
     <x v="2"/>
@@ -3237,7 +3337,7 @@
   <r>
     <x v="13"/>
     <x v="7"/>
-    <x v="42"/>
+    <x v="43"/>
     <x v="2"/>
     <x v="81"/>
     <x v="2"/>
@@ -3245,7 +3345,7 @@
   <r>
     <x v="13"/>
     <x v="10"/>
-    <x v="118"/>
+    <x v="122"/>
     <x v="8"/>
     <x v="53"/>
     <x v="2"/>
@@ -3253,7 +3353,7 @@
   <r>
     <x v="13"/>
     <x v="11"/>
-    <x v="43"/>
+    <x v="44"/>
     <x v="2"/>
     <x v="81"/>
     <x v="2"/>
@@ -3261,7 +3361,7 @@
   <r>
     <x v="13"/>
     <x v="12"/>
-    <x v="66"/>
+    <x v="69"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -3269,7 +3369,7 @@
   <r>
     <x v="13"/>
     <x v="13"/>
-    <x v="67"/>
+    <x v="70"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -3277,7 +3377,7 @@
   <r>
     <x v="13"/>
     <x v="14"/>
-    <x v="45"/>
+    <x v="46"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -3285,7 +3385,7 @@
   <r>
     <x v="13"/>
     <x v="15"/>
-    <x v="72"/>
+    <x v="76"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -3293,7 +3393,7 @@
   <r>
     <x v="13"/>
     <x v="16"/>
-    <x v="103"/>
+    <x v="107"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -3301,7 +3401,7 @@
   <r>
     <x v="13"/>
     <x v="8"/>
-    <x v="23"/>
+    <x v="24"/>
     <x v="8"/>
     <x v="71"/>
     <x v="1"/>
@@ -3309,7 +3409,7 @@
   <r>
     <x v="13"/>
     <x v="17"/>
-    <x v="101"/>
+    <x v="105"/>
     <x v="8"/>
     <x v="40"/>
     <x v="1"/>
@@ -3317,7 +3417,7 @@
   <r>
     <x v="13"/>
     <x v="0"/>
-    <x v="110"/>
+    <x v="114"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -3325,7 +3425,7 @@
   <r>
     <x v="13"/>
     <x v="1"/>
-    <x v="104"/>
+    <x v="108"/>
     <x v="4"/>
     <x v="10"/>
     <x v="0"/>
@@ -3333,7 +3433,7 @@
   <r>
     <x v="13"/>
     <x v="3"/>
-    <x v="71"/>
+    <x v="75"/>
     <x v="8"/>
     <x v="58"/>
     <x v="0"/>
@@ -3341,7 +3441,7 @@
   <r>
     <x v="13"/>
     <x v="6"/>
-    <x v="121"/>
+    <x v="125"/>
     <x v="8"/>
     <x v="61"/>
     <x v="0"/>
@@ -3349,7 +3449,7 @@
   <r>
     <x v="13"/>
     <x v="9"/>
-    <x v="13"/>
+    <x v="14"/>
     <x v="8"/>
     <x v="79"/>
     <x v="0"/>
@@ -3357,7 +3457,7 @@
   <r>
     <x v="14"/>
     <x v="0"/>
-    <x v="110"/>
+    <x v="114"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -3365,7 +3465,7 @@
   <r>
     <x v="14"/>
     <x v="1"/>
-    <x v="34"/>
+    <x v="35"/>
     <x v="5"/>
     <x v="81"/>
     <x v="1"/>
@@ -3373,7 +3473,7 @@
   <r>
     <x v="14"/>
     <x v="2"/>
-    <x v="160"/>
+    <x v="166"/>
     <x v="2"/>
     <x v="81"/>
     <x v="1"/>
@@ -3381,7 +3481,7 @@
   <r>
     <x v="14"/>
     <x v="3"/>
-    <x v="164"/>
+    <x v="170"/>
     <x v="2"/>
     <x v="81"/>
     <x v="1"/>
@@ -3389,7 +3489,7 @@
   <r>
     <x v="14"/>
     <x v="4"/>
-    <x v="174"/>
+    <x v="180"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -3397,7 +3497,7 @@
   <r>
     <x v="14"/>
     <x v="5"/>
-    <x v="16"/>
+    <x v="17"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -3405,7 +3505,7 @@
   <r>
     <x v="14"/>
     <x v="6"/>
-    <x v="171"/>
+    <x v="177"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -3413,7 +3513,7 @@
   <r>
     <x v="14"/>
     <x v="7"/>
-    <x v="172"/>
+    <x v="178"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -3421,7 +3521,7 @@
   <r>
     <x v="14"/>
     <x v="8"/>
-    <x v="179"/>
+    <x v="185"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -3429,7 +3529,7 @@
   <r>
     <x v="14"/>
     <x v="9"/>
-    <x v="161"/>
+    <x v="167"/>
     <x v="3"/>
     <x v="81"/>
     <x v="2"/>
@@ -3437,7 +3537,7 @@
   <r>
     <x v="14"/>
     <x v="10"/>
-    <x v="162"/>
+    <x v="168"/>
     <x v="3"/>
     <x v="81"/>
     <x v="2"/>
@@ -3445,7 +3545,7 @@
   <r>
     <x v="14"/>
     <x v="11"/>
-    <x v="134"/>
+    <x v="138"/>
     <x v="2"/>
     <x v="81"/>
     <x v="1"/>
@@ -3469,7 +3569,7 @@
   <r>
     <x v="14"/>
     <x v="14"/>
-    <x v="28"/>
+    <x v="29"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -3477,7 +3577,7 @@
   <r>
     <x v="14"/>
     <x v="15"/>
-    <x v="18"/>
+    <x v="19"/>
     <x v="5"/>
     <x v="81"/>
     <x v="2"/>
@@ -3485,7 +3585,7 @@
   <r>
     <x v="14"/>
     <x v="16"/>
-    <x v="125"/>
+    <x v="129"/>
     <x v="5"/>
     <x v="81"/>
     <x v="2"/>
@@ -3493,7 +3593,7 @@
   <r>
     <x v="14"/>
     <x v="17"/>
-    <x v="149"/>
+    <x v="155"/>
     <x v="5"/>
     <x v="81"/>
     <x v="1"/>
@@ -3501,7 +3601,7 @@
   <r>
     <x v="14"/>
     <x v="18"/>
-    <x v="170"/>
+    <x v="176"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -3509,7 +3609,7 @@
   <r>
     <x v="14"/>
     <x v="19"/>
-    <x v="178"/>
+    <x v="184"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -3517,7 +3617,7 @@
   <r>
     <x v="14"/>
     <x v="20"/>
-    <x v="183"/>
+    <x v="189"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -3525,7 +3625,7 @@
   <r>
     <x v="15"/>
     <x v="11"/>
-    <x v="108"/>
+    <x v="112"/>
     <x v="4"/>
     <x v="20"/>
     <x v="3"/>
@@ -3533,7 +3633,7 @@
   <r>
     <x v="15"/>
     <x v="14"/>
-    <x v="148"/>
+    <x v="153"/>
     <x v="2"/>
     <x v="18"/>
     <x v="3"/>
@@ -3541,7 +3641,7 @@
   <r>
     <x v="15"/>
     <x v="15"/>
-    <x v="131"/>
+    <x v="135"/>
     <x v="2"/>
     <x v="19"/>
     <x v="3"/>
@@ -3549,7 +3649,7 @@
   <r>
     <x v="15"/>
     <x v="4"/>
-    <x v="26"/>
+    <x v="27"/>
     <x v="2"/>
     <x v="81"/>
     <x v="2"/>
@@ -3557,7 +3657,7 @@
   <r>
     <x v="15"/>
     <x v="7"/>
-    <x v="176"/>
+    <x v="182"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -3565,7 +3665,7 @@
   <r>
     <x v="15"/>
     <x v="18"/>
-    <x v="123"/>
+    <x v="127"/>
     <x v="3"/>
     <x v="2"/>
     <x v="2"/>
@@ -3573,7 +3673,7 @@
   <r>
     <x v="15"/>
     <x v="19"/>
-    <x v="188"/>
+    <x v="194"/>
     <x v="8"/>
     <x v="47"/>
     <x v="2"/>
@@ -3581,7 +3681,7 @@
   <r>
     <x v="15"/>
     <x v="21"/>
-    <x v="102"/>
+    <x v="106"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -3589,7 +3689,7 @@
   <r>
     <x v="15"/>
     <x v="23"/>
-    <x v="80"/>
+    <x v="84"/>
     <x v="8"/>
     <x v="81"/>
     <x v="2"/>
@@ -3597,7 +3697,7 @@
   <r>
     <x v="15"/>
     <x v="5"/>
-    <x v="27"/>
+    <x v="28"/>
     <x v="8"/>
     <x v="28"/>
     <x v="1"/>
@@ -3605,7 +3705,7 @@
   <r>
     <x v="15"/>
     <x v="6"/>
-    <x v="147"/>
+    <x v="151"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -3613,7 +3713,7 @@
   <r>
     <x v="15"/>
     <x v="8"/>
-    <x v="9"/>
+    <x v="10"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -3621,7 +3721,7 @@
   <r>
     <x v="15"/>
     <x v="16"/>
-    <x v="122"/>
+    <x v="126"/>
     <x v="1"/>
     <x v="79"/>
     <x v="1"/>
@@ -3629,7 +3729,7 @@
   <r>
     <x v="15"/>
     <x v="20"/>
-    <x v="12"/>
+    <x v="13"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -3637,7 +3737,7 @@
   <r>
     <x v="15"/>
     <x v="22"/>
-    <x v="155"/>
+    <x v="161"/>
     <x v="1"/>
     <x v="79"/>
     <x v="1"/>
@@ -3645,7 +3745,7 @@
   <r>
     <x v="15"/>
     <x v="0"/>
-    <x v="110"/>
+    <x v="114"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -3653,7 +3753,7 @@
   <r>
     <x v="15"/>
     <x v="1"/>
-    <x v="145"/>
+    <x v="149"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -3661,7 +3761,7 @@
   <r>
     <x v="15"/>
     <x v="2"/>
-    <x v="47"/>
+    <x v="48"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -3669,7 +3769,7 @@
   <r>
     <x v="15"/>
     <x v="3"/>
-    <x v="91"/>
+    <x v="95"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -3677,7 +3777,7 @@
   <r>
     <x v="15"/>
     <x v="9"/>
-    <x v="22"/>
+    <x v="23"/>
     <x v="8"/>
     <x v="57"/>
     <x v="0"/>
@@ -3685,7 +3785,7 @@
   <r>
     <x v="15"/>
     <x v="10"/>
-    <x v="21"/>
+    <x v="22"/>
     <x v="8"/>
     <x v="81"/>
     <x v="0"/>
@@ -3693,7 +3793,7 @@
   <r>
     <x v="15"/>
     <x v="12"/>
-    <x v="98"/>
+    <x v="102"/>
     <x v="8"/>
     <x v="81"/>
     <x v="0"/>
@@ -3701,7 +3801,7 @@
   <r>
     <x v="15"/>
     <x v="13"/>
-    <x v="177"/>
+    <x v="183"/>
     <x v="8"/>
     <x v="31"/>
     <x v="0"/>
@@ -3709,7 +3809,7 @@
   <r>
     <x v="15"/>
     <x v="17"/>
-    <x v="62"/>
+    <x v="63"/>
     <x v="3"/>
     <x v="8"/>
     <x v="0"/>
@@ -3717,7 +3817,7 @@
   <r>
     <x v="16"/>
     <x v="1"/>
-    <x v="50"/>
+    <x v="51"/>
     <x v="8"/>
     <x v="54"/>
     <x v="1"/>
@@ -3725,7 +3825,7 @@
   <r>
     <x v="16"/>
     <x v="2"/>
-    <x v="52"/>
+    <x v="53"/>
     <x v="8"/>
     <x v="50"/>
     <x v="1"/>
@@ -3733,7 +3833,7 @@
   <r>
     <x v="16"/>
     <x v="3"/>
-    <x v="51"/>
+    <x v="52"/>
     <x v="8"/>
     <x v="63"/>
     <x v="1"/>
@@ -3741,7 +3841,7 @@
   <r>
     <x v="16"/>
     <x v="4"/>
-    <x v="140"/>
+    <x v="144"/>
     <x v="8"/>
     <x v="60"/>
     <x v="1"/>
@@ -3749,7 +3849,7 @@
   <r>
     <x v="16"/>
     <x v="5"/>
-    <x v="111"/>
+    <x v="115"/>
     <x v="5"/>
     <x v="4"/>
     <x v="1"/>
@@ -3757,7 +3857,7 @@
   <r>
     <x v="16"/>
     <x v="6"/>
-    <x v="142"/>
+    <x v="146"/>
     <x v="8"/>
     <x v="49"/>
     <x v="1"/>
@@ -3765,7 +3865,7 @@
   <r>
     <x v="16"/>
     <x v="7"/>
-    <x v="141"/>
+    <x v="145"/>
     <x v="8"/>
     <x v="62"/>
     <x v="1"/>
@@ -3773,7 +3873,23 @@
   <r>
     <x v="16"/>
     <x v="0"/>
-    <x v="145"/>
+    <x v="149"/>
+    <x v="4"/>
+    <x v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="8"/>
+    <x v="152"/>
+    <x v="4"/>
+    <x v="81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="9"/>
+    <x v="68"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -3781,7 +3897,7 @@
   <r>
     <x v="17"/>
     <x v="0"/>
-    <x v="110"/>
+    <x v="114"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -3789,7 +3905,7 @@
   <r>
     <x v="17"/>
     <x v="1"/>
-    <x v="145"/>
+    <x v="149"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -3797,7 +3913,7 @@
   <r>
     <x v="17"/>
     <x v="2"/>
-    <x v="153"/>
+    <x v="159"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -3805,7 +3921,7 @@
   <r>
     <x v="17"/>
     <x v="3"/>
-    <x v="154"/>
+    <x v="160"/>
     <x v="4"/>
     <x v="81"/>
     <x v="0"/>
@@ -3813,7 +3929,7 @@
   <r>
     <x v="17"/>
     <x v="4"/>
-    <x v="92"/>
+    <x v="96"/>
     <x v="8"/>
     <x v="81"/>
     <x v="1"/>
@@ -3821,7 +3937,7 @@
   <r>
     <x v="17"/>
     <x v="5"/>
-    <x v="185"/>
+    <x v="191"/>
     <x v="3"/>
     <x v="81"/>
     <x v="1"/>
@@ -3862,8 +3978,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3879,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3887,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3919,7 +4036,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="9" t="n">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3938,26 +4055,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K328"/>
+  <dimension ref="A1:K347"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A310" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E328" activeCellId="0" sqref="E328"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G139" activeCellId="0" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.64285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.6224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.4081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4307,16 +4424,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="D18" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F18" s="10" t="n">
         <v>0</v>
@@ -4324,95 +4441,95 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F19" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="F21" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F22" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="D23" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F23" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>54</v>
@@ -4426,47 +4543,47 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F25" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F26" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>42</v>
@@ -4477,16 +4594,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F28" s="10" t="n">
         <v>1</v>
@@ -4494,16 +4611,16 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F29" s="10" t="n">
         <v>1</v>
@@ -4511,16 +4628,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F30" s="10" t="n">
         <v>1</v>
@@ -4528,13 +4645,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>42</v>
@@ -4545,16 +4662,16 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C32" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>59</v>
       </c>
       <c r="F32" s="10" t="n">
         <v>1</v>
@@ -4562,16 +4679,16 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>63</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F33" s="10" t="n">
         <v>1</v>
@@ -4579,10 +4696,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>64</v>
@@ -4591,21 +4708,21 @@
         <v>42</v>
       </c>
       <c r="F34" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F35" s="10" t="n">
         <v>1</v>
@@ -4613,16 +4730,16 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F36" s="10" t="n">
         <v>1</v>
@@ -4630,10 +4747,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>67</v>
@@ -4642,21 +4759,21 @@
         <v>42</v>
       </c>
       <c r="F37" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>68</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F38" s="10" t="n">
         <v>1</v>
@@ -4664,98 +4781,95 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F39" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>70</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F40" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F41" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="16" t="n">
-        <v>40159</v>
+        <v>45</v>
       </c>
       <c r="F42" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="F43" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>75</v>
@@ -4764,29 +4878,32 @@
         <v>42</v>
       </c>
       <c r="F44" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="E45" s="16" t="n">
+        <v>40159</v>
       </c>
       <c r="F45" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>3</v>
@@ -4795,21 +4912,18 @@
         <v>77</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="16" t="n">
-        <v>39513</v>
+        <v>42</v>
       </c>
       <c r="F46" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>78</v>
@@ -4818,41 +4932,41 @@
         <v>42</v>
       </c>
       <c r="F47" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F48" s="10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>80</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E49" s="16" t="n">
-        <v>41296</v>
+        <v>39513</v>
       </c>
       <c r="F49" s="10" t="n">
         <v>3</v>
@@ -4860,19 +4974,16 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>81</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="16" t="n">
-        <v>41770</v>
+        <v>42</v>
       </c>
       <c r="F50" s="10" t="n">
         <v>3</v>
@@ -4880,10 +4991,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>82</v>
@@ -4891,28 +5002,25 @@
       <c r="D51" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="F51" s="10" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>85</v>
+        <v>51</v>
+      </c>
+      <c r="E52" s="16" t="n">
+        <v>41296</v>
       </c>
       <c r="F52" s="10" t="n">
         <v>3</v>
@@ -4920,16 +5028,19 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="E53" s="16" t="n">
+        <v>41770</v>
       </c>
       <c r="F53" s="10" t="n">
         <v>3</v>
@@ -4937,16 +5048,19 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>42</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>86</v>
       </c>
       <c r="F54" s="10" t="n">
         <v>3</v>
@@ -4954,27 +5068,30 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C55" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F55" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>89</v>
@@ -4982,45 +5099,39 @@
       <c r="D56" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="0" t="s">
-        <v>90</v>
-      </c>
       <c r="F56" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E57" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="F57" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F58" s="10" t="n">
         <v>2</v>
@@ -5028,19 +5139,19 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C59" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>6</v>
       </c>
       <c r="F59" s="10" t="n">
         <v>2</v>
@@ -5048,19 +5159,19 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>90</v>
+        <v>42</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="F60" s="10" t="n">
         <v>2</v>
@@ -5068,19 +5179,16 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>95</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="F61" s="10" t="n">
         <v>2</v>
@@ -5088,10 +5196,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>96</v>
@@ -5100,72 +5208,78 @@
         <v>42</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F62" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>97</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>42</v>
+        <v>74</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="F63" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>98</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F64" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="F65" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>100</v>
@@ -5174,49 +5288,52 @@
         <v>42</v>
       </c>
       <c r="F66" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>101</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>42</v>
+        <v>74</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="F67" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F68" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>103</v>
@@ -5225,15 +5342,15 @@
         <v>42</v>
       </c>
       <c r="F69" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>104</v>
@@ -5247,10 +5364,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>105</v>
@@ -5264,10 +5381,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>106</v>
@@ -5281,10 +5398,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>107</v>
@@ -5298,10 +5415,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>108</v>
@@ -5315,10 +5432,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>109</v>
@@ -5332,10 +5449,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>110</v>
@@ -5349,10 +5466,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>111</v>
@@ -5366,10 +5483,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>112</v>
@@ -5383,50 +5500,44 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>113</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E79" s="16" t="n">
-        <v>38811</v>
+        <v>42</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>114</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E80" s="0" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>115</v>
@@ -5434,28 +5545,25 @@
       <c r="D81" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E81" s="0" t="s">
-        <v>116</v>
-      </c>
       <c r="F81" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E82" s="0" t="n">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="E82" s="16" t="n">
+        <v>38811</v>
       </c>
       <c r="F82" s="10" t="n">
         <v>1</v>
@@ -5463,16 +5571,19 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>44</v>
       </c>
       <c r="F83" s="10" t="n">
         <v>1</v>
@@ -5480,73 +5591,73 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>119</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E86" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="F86" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="F87" s="10" t="n">
         <v>0</v>
@@ -5554,19 +5665,16 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="F88" s="10" t="n">
         <v>0</v>
@@ -5574,16 +5682,19 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>42</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="F89" s="10" t="n">
         <v>0</v>
@@ -5591,19 +5702,19 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F90" s="10" t="n">
         <v>0</v>
@@ -5611,19 +5722,19 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F91" s="10" t="n">
         <v>0</v>
@@ -5631,19 +5742,16 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="E92" s="0" t="s">
-        <v>132</v>
       </c>
       <c r="F92" s="10" t="n">
         <v>0</v>
@@ -5651,19 +5759,19 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F93" s="10" t="n">
         <v>0</v>
@@ -5671,19 +5779,19 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F94" s="10" t="n">
         <v>0</v>
@@ -5691,76 +5799,79 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="10" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E95" s="16" t="n">
-        <v>39054</v>
+        <v>42</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>135</v>
       </c>
       <c r="F95" s="10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E96" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B96" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E96" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="F96" s="10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="10" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="E97" s="0" t="s">
+        <v>139</v>
+      </c>
       <c r="F97" s="10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>143</v>
+        <v>51</v>
+      </c>
+      <c r="E98" s="16" t="n">
+        <v>39054</v>
       </c>
       <c r="F98" s="10" t="n">
         <v>3</v>
@@ -5768,16 +5879,19 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>42</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="F99" s="10" t="n">
         <v>3</v>
@@ -5785,70 +5899,73 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="0" t="s">
-        <v>146</v>
-      </c>
       <c r="F100" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="E101" s="0" t="s">
+        <v>146</v>
+      </c>
       <c r="F101" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F102" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C103" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E103" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="F103" s="10" t="n">
         <v>2</v>
@@ -5856,10 +5973,10 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>150</v>
@@ -5873,19 +5990,16 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="E105" s="0" t="s">
-        <v>151</v>
       </c>
       <c r="F105" s="10" t="n">
         <v>2</v>
@@ -5893,10 +6007,10 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>152</v>
@@ -5905,15 +6019,15 @@
         <v>42</v>
       </c>
       <c r="F106" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>153</v>
@@ -5922,138 +6036,132 @@
         <v>42</v>
       </c>
       <c r="F107" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>154</v>
       </c>
       <c r="F108" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F109" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E110" s="0" t="s">
-        <v>156</v>
-      </c>
       <c r="F110" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="E111" s="0" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F111" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C112" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B112" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="D112" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="F112" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="10" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F113" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C114" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D114" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="D114" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114" s="0" t="s">
-        <v>163</v>
+      <c r="E114" s="0" t="n">
+        <v>75</v>
       </c>
       <c r="F114" s="10" t="n">
         <v>1</v>
@@ -6061,19 +6169,19 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F115" s="10" t="n">
         <v>1</v>
@@ -6081,36 +6189,39 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>165</v>
       </c>
       <c r="F116" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C117" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B117" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C117" s="0" t="s">
+      <c r="D117" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>168</v>
       </c>
       <c r="F117" s="10" t="n">
         <v>1</v>
@@ -6118,19 +6229,19 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C118" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E118" s="0" t="s">
-        <v>170</v>
       </c>
       <c r="F118" s="10" t="n">
         <v>1</v>
@@ -6138,134 +6249,107 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E119" s="0" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="F119" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="F120" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F121" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="10" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E122" s="0" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="F122" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H122" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="J122" s="19" t="s">
-        <v>178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F123" s="10" t="n">
         <v>1</v>
-      </c>
-      <c r="H123" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="I123" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="J123" s="22" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E124" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="B124" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>185</v>
       </c>
       <c r="F124" s="10" t="n">
         <v>1</v>
@@ -6273,19 +6357,19 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F125" s="10" t="n">
         <v>1</v>
@@ -6293,19 +6377,19 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F126" s="10" t="n">
         <v>1</v>
@@ -6313,13 +6397,13 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>45</v>
@@ -6330,84 +6414,111 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="10" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F128" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="10" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F129" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="10" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>182</v>
       </c>
       <c r="F130" s="10" t="n">
         <v>1</v>
+      </c>
+      <c r="H130" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I130" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J130" s="19" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="10" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B131" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F131" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="C131" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="D131" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F131" s="10" t="n">
-        <v>1</v>
+      <c r="I131" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J131" s="22" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C132" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B132" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C132" s="0" t="s">
-        <v>193</v>
-      </c>
       <c r="D132" s="0" t="s">
-        <v>42</v>
+        <v>186</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>191</v>
       </c>
       <c r="F132" s="10" t="n">
         <v>1</v>
@@ -6415,358 +6526,355 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="10" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>45</v>
+        <v>186</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>193</v>
       </c>
       <c r="F133" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C134" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B134" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C134" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="D134" s="0" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>195</v>
       </c>
       <c r="F134" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="10" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F135" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H135" s="17" t="n">
         <v>0</v>
-      </c>
-      <c r="I135" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="J135" s="19" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="10" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F136" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H136" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="J136" s="19" t="s">
-        <v>199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="10" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F137" s="10" t="n">
         <v>1</v>
-      </c>
-      <c r="H137" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I137" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="J137" s="19" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="10" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F138" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="10" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F139" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="10" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F140" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="10" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F141" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="10" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E142" s="16" t="n">
-        <v>41143</v>
+        <v>51</v>
       </c>
       <c r="F142" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="10" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F143" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="10" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F144" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="10" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F145" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="10" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F146" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F147" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F148" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H148" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="J148" s="19" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C149" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="B149" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="C149" s="0" t="s">
-        <v>214</v>
-      </c>
       <c r="D149" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F149" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H149" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="J149" s="19" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E150" s="0" t="s">
-        <v>216</v>
+        <v>51</v>
       </c>
       <c r="F150" s="10" t="n">
         <v>1</v>
+      </c>
+      <c r="H150" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I150" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="J150" s="19" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="E151" s="0" t="n">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="F151" s="10" t="n">
         <v>1</v>
@@ -6774,39 +6882,33 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="E152" s="0" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F152" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="E153" s="0" t="s">
-        <v>221</v>
       </c>
       <c r="F153" s="10" t="n">
         <v>1</v>
@@ -6814,19 +6916,16 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>222</v>
+        <v>71</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E154" s="0" t="s">
-        <v>223</v>
+        <v>51</v>
       </c>
       <c r="F154" s="10" t="n">
         <v>1</v>
@@ -6834,87 +6933,87 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="10" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="E155" s="16" t="n">
+        <v>41143</v>
       </c>
       <c r="F155" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="10" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F156" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="10" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D157" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F157" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>227</v>
+        <v>7</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>219</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F158" s="10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>228</v>
+        <v>8</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>220</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="E159" s="0" t="s">
-        <v>229</v>
       </c>
       <c r="F159" s="10" t="n">
         <v>2</v>
@@ -6922,19 +7021,16 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C160" s="11" t="s">
-        <v>230</v>
+        <v>9</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>221</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="E160" s="0" t="s">
-        <v>231</v>
       </c>
       <c r="F160" s="10" t="n">
         <v>2</v>
@@ -6942,16 +7038,16 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>232</v>
+        <v>10</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>222</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F161" s="10" t="n">
         <v>2</v>
@@ -6959,19 +7055,16 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C162" s="11" t="s">
-        <v>233</v>
+      <c r="C162" s="0" t="s">
+        <v>223</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="E162" s="0" t="s">
-        <v>234</v>
       </c>
       <c r="F162" s="10" t="n">
         <v>2</v>
@@ -6979,337 +7072,343 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>225</v>
       </c>
       <c r="F163" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B164" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C164" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B164" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="C164" s="0" t="s">
-        <v>236</v>
-      </c>
       <c r="D164" s="0" t="s">
-        <v>42</v>
+        <v>227</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>153</v>
       </c>
       <c r="F164" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>42</v>
+        <v>227</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>55</v>
       </c>
       <c r="F165" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="E166" s="0" t="s">
+        <v>230</v>
+      </c>
       <c r="F166" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D167" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="E167" s="0" t="s">
+        <v>232</v>
+      </c>
       <c r="F167" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F168" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>241</v>
+        <v>1</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>50</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E169" s="0" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="F169" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D170" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E170" s="0" t="s">
-        <v>244</v>
-      </c>
       <c r="F170" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="10" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F171" s="10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="10" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E172" s="0" t="n">
-        <v>11861</v>
+        <v>42</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>238</v>
       </c>
       <c r="F172" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="10" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D173" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F173" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="10" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E174" s="0" t="s">
-        <v>249</v>
+        <v>51</v>
       </c>
       <c r="F174" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="10" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D175" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>90</v>
+        <v>243</v>
       </c>
       <c r="F175" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="10" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>47</v>
+        <v>244</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F176" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="10" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>54</v>
+        <v>245</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F177" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="10" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F178" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="10" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>55</v>
+        <v>247</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F179" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="10" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D180" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F180" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="10" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D181" s="0" t="s">
         <v>42</v>
@@ -7320,152 +7419,170 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B182" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E182" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B182" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C182" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="D182" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="F182" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="10" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D183" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="E183" s="0" t="s">
+        <v>253</v>
+      </c>
       <c r="F183" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="10" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="C184" s="0" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F184" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="10" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C185" s="0" t="s">
-        <v>256</v>
+        <v>2</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>218</v>
+        <v>45</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <v>11861</v>
       </c>
       <c r="F185" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="10" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="C186" s="0" t="s">
-        <v>257</v>
+        <v>4</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>218</v>
+        <v>42</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>256</v>
       </c>
       <c r="F186" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="10" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="C187" s="0" t="s">
-        <v>68</v>
+        <v>7</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>258</v>
       </c>
       <c r="F187" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="10" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="C188" s="0" t="s">
-        <v>258</v>
+        <v>10</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>259</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="E188" s="0" t="s">
+        <v>93</v>
+      </c>
       <c r="F188" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="10" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F189" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="10" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>260</v>
+        <v>57</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F190" s="10" t="n">
         <v>1</v>
@@ -7473,50 +7590,50 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="10" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>261</v>
+        <v>52</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F191" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="10" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>262</v>
+        <v>58</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F192" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="10" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F193" s="10" t="n">
         <v>1</v>
@@ -7524,141 +7641,132 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="10" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D194" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F194" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="10" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F195" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="10" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>52</v>
+        <v>264</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F196" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>267</v>
+        <v>68</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E197" s="0" t="n">
-        <v>51380</v>
+        <v>42</v>
       </c>
       <c r="F197" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E198" s="16" t="n">
-        <v>41880</v>
+        <v>227</v>
       </c>
       <c r="F198" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B199" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C199" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="B199" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="C199" s="0" t="s">
-        <v>269</v>
-      </c>
       <c r="D199" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E199" s="16" t="n">
-        <v>42401</v>
+        <v>227</v>
       </c>
       <c r="F199" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F200" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>42</v>
@@ -7669,19 +7777,16 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="E202" s="0" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="F202" s="10" t="n">
         <v>2</v>
@@ -7689,36 +7794,33 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E203" s="0" t="s">
-        <v>273</v>
-      </c>
       <c r="F203" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F204" s="10" t="n">
         <v>2</v>
@@ -7726,16 +7828,16 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F205" s="10" t="n">
         <v>2</v>
@@ -7743,19 +7845,16 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E206" s="0" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="F206" s="10" t="n">
         <v>1</v>
@@ -7763,13 +7862,13 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>129</v>
+        <v>273</v>
       </c>
       <c r="D207" s="0" t="s">
         <v>42</v>
@@ -7780,13 +7879,13 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>42</v>
@@ -7797,138 +7896,144 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>278</v>
+        <v>55</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E209" s="0" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F209" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="10" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="E210" s="0" t="n">
+        <v>51380</v>
       </c>
       <c r="F210" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="10" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E211" s="0" t="s">
-        <v>90</v>
+        <v>51</v>
+      </c>
+      <c r="E211" s="16" t="n">
+        <v>41880</v>
       </c>
       <c r="F211" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="10" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>47</v>
+        <v>278</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="E212" s="16" t="n">
+        <v>42401</v>
       </c>
       <c r="F212" s="10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="10" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F213" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="10" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F214" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="10" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B215" s="0" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>45</v>
+        <v>227</v>
+      </c>
+      <c r="E215" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="F215" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="10" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>120</v>
+        <v>281</v>
       </c>
       <c r="D216" s="0" t="s">
         <v>42</v>
@@ -7937,15 +8042,15 @@
         <v>282</v>
       </c>
       <c r="F216" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="10" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C217" s="0" t="s">
         <v>283</v>
@@ -7954,15 +8059,15 @@
         <v>42</v>
       </c>
       <c r="F217" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="10" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C218" s="0" t="s">
         <v>284</v>
@@ -7971,15 +8076,15 @@
         <v>42</v>
       </c>
       <c r="F218" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="10" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C219" s="0" t="s">
         <v>285</v>
@@ -7988,47 +8093,41 @@
         <v>42</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>286</v>
+        <v>154</v>
       </c>
       <c r="F219" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="10" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B220" s="0" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>287</v>
+        <v>132</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="E220" s="0" t="n">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="F220" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="10" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B221" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D221" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="E221" s="0" t="s">
-        <v>290</v>
       </c>
       <c r="F221" s="10" t="n">
         <v>1</v>
@@ -8036,19 +8135,19 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="10" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B222" s="0" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>292</v>
+        <v>93</v>
       </c>
       <c r="F222" s="10" t="n">
         <v>1</v>
@@ -8056,19 +8155,16 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B223" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C223" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="B223" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C223" s="0" t="s">
-        <v>293</v>
-      </c>
       <c r="D223" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="E223" s="0" t="s">
-        <v>294</v>
       </c>
       <c r="F223" s="10" t="n">
         <v>1</v>
@@ -8076,19 +8172,19 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="10" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B224" s="0" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>296</v>
+        <v>93</v>
       </c>
       <c r="F224" s="10" t="n">
         <v>1</v>
@@ -8096,73 +8192,64 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="10" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B225" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>297</v>
+        <v>50</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E225" s="0" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F225" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="10" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B226" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E226" s="0" t="s">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="F226" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="10" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B227" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>300</v>
+        <v>122</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E227" s="0" t="s">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="F227" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="10" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B228" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="D228" s="0" t="s">
         <v>45</v>
@@ -8173,16 +8260,19 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="10" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="B229" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="E229" s="0" t="s">
+        <v>291</v>
       </c>
       <c r="F229" s="10" t="n">
         <v>0</v>
@@ -8190,16 +8280,16 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="10" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="B230" s="0" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F230" s="10" t="n">
         <v>0</v>
@@ -8207,16 +8297,16 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="10" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="B231" s="0" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F231" s="10" t="n">
         <v>0</v>
@@ -8224,16 +8314,19 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="10" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="B232" s="0" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="E232" s="0" t="s">
+        <v>295</v>
       </c>
       <c r="F232" s="10" t="n">
         <v>0</v>
@@ -8241,33 +8334,39 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="10" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="B233" s="0" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>42</v>
+        <v>227</v>
+      </c>
+      <c r="E233" s="0" t="n">
+        <v>88</v>
       </c>
       <c r="F233" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B234" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>218</v>
+        <v>42</v>
+      </c>
+      <c r="E234" s="0" t="s">
+        <v>299</v>
       </c>
       <c r="F234" s="10" t="n">
         <v>1</v>
@@ -8275,16 +8374,19 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B235" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>218</v>
+        <v>42</v>
+      </c>
+      <c r="E235" s="0" t="s">
+        <v>301</v>
       </c>
       <c r="F235" s="10" t="n">
         <v>1</v>
@@ -8292,16 +8394,19 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B236" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C236" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="B236" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C236" s="0" t="s">
-        <v>308</v>
-      </c>
       <c r="D236" s="0" t="s">
-        <v>218</v>
+        <v>42</v>
+      </c>
+      <c r="E236" s="0" t="s">
+        <v>303</v>
       </c>
       <c r="F236" s="10" t="n">
         <v>1</v>
@@ -8309,16 +8414,19 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B237" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>218</v>
+        <v>42</v>
+      </c>
+      <c r="E237" s="0" t="s">
+        <v>305</v>
       </c>
       <c r="F237" s="10" t="n">
         <v>1</v>
@@ -8326,16 +8434,19 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>218</v>
+        <v>62</v>
+      </c>
+      <c r="E238" s="0" t="n">
+        <v>13</v>
       </c>
       <c r="F238" s="10" t="n">
         <v>1</v>
@@ -8343,16 +8454,19 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B239" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>218</v>
+        <v>42</v>
+      </c>
+      <c r="E239" s="0" t="s">
+        <v>308</v>
       </c>
       <c r="F239" s="10" t="n">
         <v>1</v>
@@ -8360,16 +8474,19 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B240" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>218</v>
+        <v>42</v>
+      </c>
+      <c r="E240" s="0" t="s">
+        <v>310</v>
       </c>
       <c r="F240" s="10" t="n">
         <v>1</v>
@@ -8377,50 +8494,50 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B241" s="0" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="F241" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B242" s="0" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>314</v>
+        <v>46</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="F242" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B243" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>315</v>
+        <v>48</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="F243" s="10" t="n">
         <v>1</v>
@@ -8428,47 +8545,47 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B244" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>316</v>
+        <v>180</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F244" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="10" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B245" s="0" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>317</v>
+        <v>50</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F245" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="10" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B246" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D246" s="0" t="s">
         <v>45</v>
@@ -8479,47 +8596,47 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="10" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B247" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>49</v>
+        <v>312</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F247" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="10" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B248" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>200</v>
+        <v>313</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F248" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="10" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B249" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D249" s="0" t="s">
         <v>42</v>
@@ -8530,16 +8647,16 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="10" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B250" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>68</v>
+        <v>315</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="F250" s="10" t="n">
         <v>1</v>
@@ -8547,33 +8664,33 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="10" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B251" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>47</v>
+        <v>316</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="F251" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="10" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B252" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="F252" s="10" t="n">
         <v>1</v>
@@ -8581,16 +8698,16 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="10" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B253" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>55</v>
+        <v>318</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="F253" s="10" t="n">
         <v>1</v>
@@ -8598,33 +8715,33 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="10" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B254" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>44</v>
+        <v>319</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="F254" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B255" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C255" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="B255" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C255" s="0" t="s">
-        <v>321</v>
-      </c>
       <c r="D255" s="0" t="s">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="F255" s="10" t="n">
         <v>1</v>
@@ -8632,16 +8749,16 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="10" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B256" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>113</v>
+        <v>321</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="F256" s="10" t="n">
         <v>1</v>
@@ -8649,16 +8766,16 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="10" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B257" s="0" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="F257" s="10" t="n">
         <v>1</v>
@@ -8666,16 +8783,16 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="10" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B258" s="0" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>66</v>
+        <v>323</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="F258" s="10" t="n">
         <v>1</v>
@@ -8683,16 +8800,16 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="10" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B259" s="0" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>68</v>
+        <v>324</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="F259" s="10" t="n">
         <v>1</v>
@@ -8700,16 +8817,16 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="10" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B260" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>52</v>
+        <v>325</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F260" s="10" t="n">
         <v>1</v>
@@ -8717,104 +8834,101 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="10" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B261" s="0" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D261" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F261" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="10" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B262" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F262" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="10" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B263" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>324</v>
+        <v>52</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F263" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="10" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B264" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>325</v>
+        <v>209</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F264" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="10" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B265" s="0" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>211</v>
+        <v>328</v>
       </c>
       <c r="D265" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F265" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="10" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B266" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E266" s="0" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F266" s="10" t="n">
         <v>1</v>
@@ -8822,36 +8936,33 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="10" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B267" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>252</v>
+        <v>50</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E267" s="0" t="s">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="F267" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="10" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B268" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F268" s="10" t="n">
         <v>1</v>
@@ -8859,19 +8970,16 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="10" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B269" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E269" s="16" t="n">
-        <v>38163</v>
+        <v>51</v>
       </c>
       <c r="F269" s="10" t="n">
         <v>1</v>
@@ -8879,39 +8987,33 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="10" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B270" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E270" s="16" t="n">
-        <v>38888</v>
+        <v>45</v>
       </c>
       <c r="F270" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="10" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B271" s="0" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D271" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="E271" s="0" t="s">
-        <v>328</v>
       </c>
       <c r="F271" s="10" t="n">
         <v>1</v>
@@ -8919,16 +9021,16 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="10" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B272" s="0" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>329</v>
+        <v>116</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F272" s="10" t="n">
         <v>1</v>
@@ -8936,16 +9038,16 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="10" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B273" s="0" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>330</v>
+        <v>272</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F273" s="10" t="n">
         <v>1</v>
@@ -8953,53 +9055,53 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="10" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B274" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F274" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B275" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>332</v>
+        <v>71</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F275" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B276" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>333</v>
+        <v>55</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F276" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9007,16 +9109,13 @@
         <v>331</v>
       </c>
       <c r="B277" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D277" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="E277" s="0" t="s">
-        <v>335</v>
       </c>
       <c r="F277" s="10" t="n">
         <v>2</v>
@@ -9027,10 +9126,10 @@
         <v>331</v>
       </c>
       <c r="B278" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>336</v>
+        <v>67</v>
       </c>
       <c r="D278" s="0" t="s">
         <v>42</v>
@@ -9044,10 +9143,10 @@
         <v>331</v>
       </c>
       <c r="B279" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D279" s="0" t="s">
         <v>42</v>
@@ -9061,16 +9160,13 @@
         <v>331</v>
       </c>
       <c r="B280" s="0" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D280" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="E280" s="0" t="s">
-        <v>130</v>
       </c>
       <c r="F280" s="10" t="n">
         <v>2</v>
@@ -9081,10 +9177,10 @@
         <v>331</v>
       </c>
       <c r="B281" s="0" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>339</v>
+        <v>220</v>
       </c>
       <c r="D281" s="0" t="s">
         <v>42</v>
@@ -9098,16 +9194,19 @@
         <v>331</v>
       </c>
       <c r="B282" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>340</v>
+        <v>57</v>
       </c>
       <c r="D282" s="0" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="E282" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="F282" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9115,16 +9214,19 @@
         <v>331</v>
       </c>
       <c r="B283" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>341</v>
+        <v>261</v>
       </c>
       <c r="D283" s="0" t="s">
-        <v>71</v>
+        <v>42</v>
+      </c>
+      <c r="E283" s="0" t="s">
+        <v>335</v>
       </c>
       <c r="F283" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9132,16 +9234,16 @@
         <v>331</v>
       </c>
       <c r="B284" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>342</v>
+        <v>59</v>
       </c>
       <c r="D284" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F284" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9149,16 +9251,19 @@
         <v>331</v>
       </c>
       <c r="B285" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>343</v>
+        <v>52</v>
       </c>
       <c r="D285" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="E285" s="16" t="n">
+        <v>38163</v>
       </c>
       <c r="F285" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9166,16 +9271,19 @@
         <v>331</v>
       </c>
       <c r="B286" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>344</v>
+        <v>58</v>
       </c>
       <c r="D286" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="E286" s="16" t="n">
+        <v>38888</v>
       </c>
       <c r="F286" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9183,16 +9291,19 @@
         <v>331</v>
       </c>
       <c r="B287" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D287" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="E287" s="0" t="s">
+        <v>337</v>
       </c>
       <c r="F287" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9200,16 +9311,16 @@
         <v>331</v>
       </c>
       <c r="B288" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D288" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F288" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9217,16 +9328,16 @@
         <v>331</v>
       </c>
       <c r="B289" s="0" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D289" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F289" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9234,64 +9345,67 @@
         <v>331</v>
       </c>
       <c r="B290" s="0" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>348</v>
+        <v>50</v>
       </c>
       <c r="D290" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F290" s="10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="10" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B291" s="0" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F291" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="10" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B292" s="0" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D292" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F292" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="10" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B293" s="0" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D293" s="0" t="s">
         <v>42</v>
+      </c>
+      <c r="E293" s="0" t="s">
+        <v>344</v>
       </c>
       <c r="F293" s="10" t="n">
         <v>2</v>
@@ -9299,13 +9413,13 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="10" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B294" s="0" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D294" s="0" t="s">
         <v>42</v>
@@ -9316,13 +9430,13 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="10" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B295" s="0" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D295" s="0" t="s">
         <v>42</v>
@@ -9333,16 +9447,19 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="10" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B296" s="0" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D296" s="0" t="s">
         <v>42</v>
+      </c>
+      <c r="E296" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="F296" s="10" t="n">
         <v>2</v>
@@ -9350,13 +9467,13 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="10" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B297" s="0" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D297" s="0" t="s">
         <v>42</v>
@@ -9367,16 +9484,16 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="10" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B298" s="0" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D298" s="0" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F298" s="10" t="n">
         <v>2</v>
@@ -9384,16 +9501,16 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="10" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B299" s="0" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D299" s="0" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="F299" s="10" t="n">
         <v>2</v>
@@ -9401,13 +9518,13 @@
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="10" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B300" s="0" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D300" s="0" t="s">
         <v>42</v>
@@ -9418,13 +9535,13 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="10" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B301" s="0" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D301" s="0" t="s">
         <v>42</v>
@@ -9435,16 +9552,16 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="10" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B302" s="0" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D302" s="0" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F302" s="10" t="n">
         <v>2</v>
@@ -9452,16 +9569,16 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="10" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B303" s="0" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F303" s="10" t="n">
         <v>2</v>
@@ -9469,338 +9586,308 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="10" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B304" s="0" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>47</v>
+        <v>355</v>
       </c>
       <c r="D304" s="0" t="s">
         <v>45</v>
       </c>
       <c r="F304" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="10" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B305" s="0" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>13</v>
+        <v>356</v>
       </c>
       <c r="D305" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E305" s="0" t="s">
-        <v>363</v>
+        <v>42</v>
       </c>
       <c r="F305" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="10" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B306" s="0" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D306" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E306" s="0" t="s">
-        <v>365</v>
+        <v>42</v>
       </c>
       <c r="F306" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="10" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B307" s="0" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D307" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E307" s="0" t="s">
-        <v>367</v>
+        <v>42</v>
       </c>
       <c r="F307" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="10" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B308" s="0" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>188</v>
+        <v>359</v>
       </c>
       <c r="D308" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E308" s="0" t="s">
-        <v>368</v>
+        <v>42</v>
       </c>
       <c r="F308" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="10" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B309" s="0" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="D309" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E309" s="0" t="s">
-        <v>369</v>
+        <v>42</v>
       </c>
       <c r="F309" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="10" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B310" s="0" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D310" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E310" s="0" t="s">
-        <v>371</v>
+        <v>42</v>
       </c>
       <c r="F310" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B311" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C311" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="B311" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C311" s="0" t="s">
-        <v>372</v>
-      </c>
       <c r="D311" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E311" s="0" t="s">
-        <v>373</v>
+        <v>42</v>
       </c>
       <c r="F311" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="10" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B312" s="0" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="D312" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E312" s="0" t="s">
-        <v>375</v>
+        <v>42</v>
       </c>
       <c r="F312" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="10" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B313" s="0" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="D313" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E313" s="0" t="s">
-        <v>377</v>
+        <v>42</v>
       </c>
       <c r="F313" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="10" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B314" s="0" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="D314" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E314" s="0" t="s">
-        <v>379</v>
+        <v>74</v>
       </c>
       <c r="F314" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="10" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B315" s="0" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="D315" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E315" s="0" t="s">
-        <v>381</v>
-      </c>
       <c r="F315" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="10" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B316" s="0" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>44</v>
+        <v>367</v>
       </c>
       <c r="D316" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F316" s="10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="10" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="B317" s="0" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>68</v>
+        <v>368</v>
       </c>
       <c r="D317" s="0" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F317" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="10" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="B318" s="0" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="D318" s="0" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F318" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="10" t="s">
-        <v>206</v>
+        <v>340</v>
       </c>
       <c r="B319" s="0" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F319" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="10" t="s">
-        <v>206</v>
+        <v>340</v>
       </c>
       <c r="B320" s="0" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>384</v>
+        <v>50</v>
       </c>
       <c r="D320" s="0" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F320" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="10" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="B321" s="0" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>385</v>
+        <v>13</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="E321" s="0" t="s">
+        <v>372</v>
       </c>
       <c r="F321" s="10" t="n">
         <v>1</v>
@@ -9808,16 +9895,19 @@
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="10" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="B322" s="0" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D322" s="0" t="s">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="E322" s="0" t="s">
+        <v>374</v>
       </c>
       <c r="F322" s="10" t="n">
         <v>1</v>
@@ -9825,16 +9915,19 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="10" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="B323" s="0" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="D323" s="0" t="s">
-        <v>59</v>
+        <v>14</v>
+      </c>
+      <c r="E323" s="0" t="s">
+        <v>376</v>
       </c>
       <c r="F323" s="10" t="n">
         <v>1</v>
@@ -9842,16 +9935,19 @@
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="10" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="B324" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>388</v>
+        <v>194</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="E324" s="0" t="s">
+        <v>377</v>
       </c>
       <c r="F324" s="10" t="n">
         <v>1</v>
@@ -9859,16 +9955,19 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="10" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="B325" s="0" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>389</v>
+        <v>20</v>
       </c>
       <c r="D325" s="0" t="s">
-        <v>59</v>
+        <v>14</v>
+      </c>
+      <c r="E325" s="0" t="s">
+        <v>378</v>
       </c>
       <c r="F325" s="10" t="n">
         <v>1</v>
@@ -9876,16 +9975,19 @@
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="10" t="s">
-        <v>320</v>
+        <v>371</v>
       </c>
       <c r="B326" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>54</v>
+        <v>379</v>
       </c>
       <c r="D326" s="0" t="s">
-        <v>59</v>
+        <v>14</v>
+      </c>
+      <c r="E326" s="0" t="s">
+        <v>380</v>
       </c>
       <c r="F326" s="10" t="n">
         <v>1</v>
@@ -9893,16 +9995,19 @@
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="10" t="s">
-        <v>190</v>
+        <v>371</v>
       </c>
       <c r="B327" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>54</v>
+        <v>381</v>
       </c>
       <c r="D327" s="0" t="s">
-        <v>59</v>
+        <v>14</v>
+      </c>
+      <c r="E327" s="0" t="s">
+        <v>382</v>
       </c>
       <c r="F327" s="10" t="n">
         <v>1</v>
@@ -9910,18 +10015,353 @@
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="10" t="s">
-        <v>46</v>
+        <v>371</v>
       </c>
       <c r="B328" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C328" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="D328" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E328" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="F328" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B329" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C329" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="D329" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E329" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="F329" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B330" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C330" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="D330" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E330" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="F330" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B331" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C331" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D331" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F331" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B332" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C332" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F332" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B333" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C333" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="D333" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E333" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="F333" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B334" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C334" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D334" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F334" s="10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B335" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C335" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D335" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F335" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B336" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C336" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D336" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F336" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B337" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C337" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="D337" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F337" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B338" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C338" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="D338" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F338" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B339" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C339" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="D339" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F339" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B340" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C340" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="D340" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F340" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B341" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C341" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="D341" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F341" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B342" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C342" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="D342" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F342" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B343" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C343" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="D343" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F343" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B344" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C344" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D344" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F344" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B345" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C345" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D345" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F345" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B346" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C346" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D346" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F346" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B347" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C328" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D328" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F328" s="10" t="n">
+      <c r="C347" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D347" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F347" s="10" t="n">
         <v>1</v>
       </c>
     </row>

--- a/input/project_tiers.xlsx
+++ b/input/project_tiers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyuanli/Documents/redcap-cloud/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{1724339F-6DD7-D449-AF25-35992DCDA264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88AC7BB-2D5F-D540-9F7C-B1B08092B1CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="34740" windowHeight="18600" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,11 +21,10 @@
     <definedName name="_FilterDatabase_0" localSheetId="1">Sheet1!$A$2:$J$250</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Sheet1!$A$2:$J$250</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -1255,79 +1254,79 @@
     <t>date Of Diagnosis Of Treatment Induced Neoplasm</t>
   </si>
   <si>
-    <t>actionableExpressionOutlier</t>
-  </si>
-  <si>
-    <t>actionableGermlineVariant</t>
-  </si>
-  <si>
-    <t>germlineVariantsDrug</t>
-  </si>
-  <si>
-    <t>germlineVariantsDrugClass</t>
-  </si>
-  <si>
-    <t>germlineVariantsDiscussed</t>
-  </si>
-  <si>
-    <t>actionableSomaticVariants</t>
-  </si>
-  <si>
-    <t>somaticVariantsDrug</t>
-  </si>
-  <si>
-    <t>somaticVariantsDrugClass</t>
-  </si>
-  <si>
-    <t>somaticVariantsDiscussed</t>
-  </si>
-  <si>
-    <t>anyActionableExpressionOutlier</t>
-  </si>
-  <si>
-    <t>expressionDrug</t>
-  </si>
-  <si>
-    <t>expressionDrugClass</t>
-  </si>
-  <si>
-    <t>expressionTypeOfAnalysisUsed</t>
-  </si>
-  <si>
-    <t>expressionTypeOfInformationUtility</t>
-  </si>
-  <si>
-    <t>expressionAlteredGene</t>
-  </si>
-  <si>
-    <t>expressionNonActionableGene</t>
-  </si>
-  <si>
-    <t>expressionTypeOfAlteration</t>
-  </si>
-  <si>
-    <t>anyActionableGermlineVariants</t>
-  </si>
-  <si>
-    <t>germlineVariantsTypeOfAnalysisUsed</t>
-  </si>
-  <si>
-    <t>germlineVariantsClassificationOfVariants</t>
-  </si>
-  <si>
-    <t>germlineVariantsTypeOfInformationUtility</t>
-  </si>
-  <si>
-    <t>anyActionableSomaticVariants</t>
-  </si>
-  <si>
-    <t>somaticVariantsTypeOfAnalysisUsed</t>
-  </si>
-  <si>
-    <t>somaticVariantsTypeOfInformationUtility</t>
-  </si>
-  <si>
-    <t>somaticVariantsNonActionable</t>
+    <t>actionable Expression Outlier</t>
+  </si>
+  <si>
+    <t>actionable Germline Variant</t>
+  </si>
+  <si>
+    <t>germline Variants Drug</t>
+  </si>
+  <si>
+    <t>germline Variants Drug Class</t>
+  </si>
+  <si>
+    <t>germline Variants Discussed</t>
+  </si>
+  <si>
+    <t>actionable Somatic Variants</t>
+  </si>
+  <si>
+    <t>somatic Variants Drug</t>
+  </si>
+  <si>
+    <t>somatic Variants Drug Class</t>
+  </si>
+  <si>
+    <t>somatic Variants Discussed</t>
+  </si>
+  <si>
+    <t>any Actionable Expression Outlier</t>
+  </si>
+  <si>
+    <t>expression Drug</t>
+  </si>
+  <si>
+    <t>expression Drug Class</t>
+  </si>
+  <si>
+    <t>expression Type Of Analysis Used</t>
+  </si>
+  <si>
+    <t>expression Type Of Information Utility</t>
+  </si>
+  <si>
+    <t>expression AlteredGene</t>
+  </si>
+  <si>
+    <t>expression Non Actionable Gene</t>
+  </si>
+  <si>
+    <t>expression Type Of Alteration</t>
+  </si>
+  <si>
+    <t>any Actionable Germline Variants</t>
+  </si>
+  <si>
+    <t>germline Variants Type Of Analysis Used</t>
+  </si>
+  <si>
+    <t>germline Variants Classification Of Variants</t>
+  </si>
+  <si>
+    <t>germline Variants Type Of Information Utility</t>
+  </si>
+  <si>
+    <t>any Actionable Somatic Variants</t>
+  </si>
+  <si>
+    <t>somatic Variants Type Of Analysis Used</t>
+  </si>
+  <si>
+    <t>somatic Variants Type Of Information Utility</t>
+  </si>
+  <si>
+    <t>somatic Variants Non Actionable</t>
   </si>
 </sst>
 </file>
@@ -4041,7 +4040,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" outline="1" outlineData="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" outline="1" outlineData="1">
   <location ref="A3:B9" firstHeaderRow="0" firstDataRow="0" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -4442,8 +4441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E366" sqref="E366"/>
+    <sheetView tabSelected="1" topLeftCell="A346" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C365" sqref="C365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
